--- a/medicine/Enfance/Alfred_Assollant/Alfred_Assollant.xlsx
+++ b/medicine/Enfance/Alfred_Assollant/Alfred_Assollant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Assollant, parfois écrit Assolant, né à Aubusson (Creuse) le 20 mars 1827 et mort à Paris le 3 mars 1886[1], est un romancier français, auteur de romans pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Assollant, parfois écrit Assolant, né à Aubusson (Creuse) le 20 mars 1827 et mort à Paris le 3 mars 1886, est un romancier français, auteur de romans pour la jeunesse.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Licencié ès Lettres, il commença par enseigner l'histoire à Paris et dans quelques autres villes mais, s'étant attiré les foudres de son recteur pour ses opinions républicaines, il chercha à s'assurer une existence plus libre en Amérique du Nord et entreprit un voyage aux États-Unis. Déçu, il revint à Paris où, en 1858, il publia sous le titre de Scènes de la vie des États-Unis plusieurs nouvelles qui suscitèrent de l'intérêt par leur vie et leur couleur locale. Par la suite se succédèrent rapidement des romans et des nouvelles où apparaissaient une certaine indifférence vis-à-vis de l'ordre et de la mesure et un goût pour le paradoxe et les traits d'esprit.
 Farouche opposant de Napoléon III, il collabora à la presse d'opposition, puis devint auteur de romans pour la jeunesse. En 1867, il publia Les Aventures du capitaine Corcoran dans la Bibliothèque rose de Louis Hachette. Après la guerre de 1870, il fut surtout un écrivain politique, surtout dans les organes proches des partisans de la Commune. Il ne manqua pas non plus à chaque occasion de manifester sa haine des Allemands comme dans Le docteur Judassohn. Il a écrit sous le nom d'« Alceste ».
-Après plusieurs échecs successifs à la députation, il termine sa vie dans l'anonymat[Information douteuse] et meurt à Paris en 1886. Il est inhumé au cimetière du Père-Lachaise (53e division)[2],[3].
-Un nombre important des ses ouvrages sont repris dans la collection populaire « Les maîtres du roman », lancée en 1890 par les éditions Dentu[4].
+Après plusieurs échecs successifs à la députation, il termine sa vie dans l'anonymat[Information douteuse] et meurt à Paris en 1886. Il est inhumé au cimetière du Père-Lachaise (53e division),.
+Un nombre important des ses ouvrages sont repris dans la collection populaire « Les maîtres du roman », lancée en 1890 par les éditions Dentu.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Scènes de la vie des États-Unis (trois récits : Acacia, Les Butterfly, Une fantaisie américaine) 1858 - Éditeur L. Hachette &amp; Cie
 Deux amis en 1792 1859 - Éditeur L. Hachette&amp; Cie
